--- a/Files/Vaccine_May 1, 2018.xlsx
+++ b/Files/Vaccine_May 1, 2018.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="292">
   <si>
     <t xml:space="preserve">Vaccine</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">Contract Number</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP [1]</t>
+    <t xml:space="preserve">DTaP </t>
   </si>
   <si>
     <t xml:space="preserve">Daptacel</t>
@@ -92,7 +92,7 @@
     <t xml:space="preserve">10 pack - 1 dose syringe</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP-IPV [2]</t>
+    <t xml:space="preserve">DTaP-IPV </t>
   </si>
   <si>
     <t xml:space="preserve">Quadracel</t>
@@ -122,7 +122,7 @@
     <t xml:space="preserve">58160-0812-52</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP-Hep B-IPV [4]</t>
+    <t xml:space="preserve">DTaP-Hep B-IPV </t>
   </si>
   <si>
     <t xml:space="preserve">Pediarix</t>
@@ -137,7 +137,7 @@
     <t xml:space="preserve">$76.95</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP-IP-HI [4]</t>
+    <t xml:space="preserve">DTaP-IP-HI </t>
   </si>
   <si>
     <t xml:space="preserve">Pentacel</t>
@@ -155,7 +155,7 @@
     <t xml:space="preserve">$92.58</t>
   </si>
   <si>
-    <t xml:space="preserve">e-IPV [5]</t>
+    <t xml:space="preserve">e-IPV </t>
   </si>
   <si>
     <t xml:space="preserve">IPOL</t>
@@ -173,7 +173,7 @@
     <t xml:space="preserve">$31.97</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A Pediatric [5]</t>
+    <t xml:space="preserve">Hepatitis A Pediatric </t>
   </si>
   <si>
     <t xml:space="preserve">Vaqta</t>
@@ -209,7 +209,7 @@
     <t xml:space="preserve">58160-0825-52</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A-Hepatitis B 18 only [3]</t>
+    <t xml:space="preserve">Hepatitis A-Hepatitis B 18 only </t>
   </si>
   <si>
     <t xml:space="preserve">Twinrix</t>
@@ -224,8 +224,7 @@
     <t xml:space="preserve">$101.00</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis B [5]
-Pediatric/Adolescent</t>
+    <t xml:space="preserve">Hepatitis B  Pediatric/Adolescent</t>
   </si>
   <si>
     <t xml:space="preserve">Engerix B</t>
@@ -240,8 +239,7 @@
     <t xml:space="preserve">$23.05</t>
   </si>
   <si>
-    <t xml:space="preserve">Recombivax
-HB</t>
+    <t xml:space="preserve">Recombivax HB</t>
   </si>
   <si>
     <t xml:space="preserve">00006-4981-00</t>
@@ -253,7 +251,7 @@
     <t xml:space="preserve">$23.95</t>
   </si>
   <si>
-    <t xml:space="preserve">Hib [5]</t>
+    <t xml:space="preserve">Hib </t>
   </si>
   <si>
     <t xml:space="preserve">PedvaxHIB</t>
@@ -295,7 +293,7 @@
     <t xml:space="preserve">200-2018-900359</t>
   </si>
   <si>
-    <t xml:space="preserve">HPV - Human Papillomavirus 9-valent [5]</t>
+    <t xml:space="preserve">HPV - Human Papillomavirus 9-valent </t>
   </si>
   <si>
     <t xml:space="preserve">Gardasil9</t>
@@ -310,7 +308,7 @@
     <t xml:space="preserve">$204.87</t>
   </si>
   <si>
-    <t xml:space="preserve">MENB - Meningococcal Group B [5]</t>
+    <t xml:space="preserve">MENB - Meningococcal Group B </t>
   </si>
   <si>
     <t xml:space="preserve">Trumenba</t>
@@ -349,7 +347,7 @@
     <t xml:space="preserve">1 pack - 1 dose syringe</t>
   </si>
   <si>
-    <t xml:space="preserve">Meningococcal Conjugate (Groups A, C, Y and W-135) [5]</t>
+    <t xml:space="preserve">Meningococcal Conjugate (Groups A, C, Y and W-135) </t>
   </si>
   <si>
     <t xml:space="preserve">Menactra</t>
@@ -376,7 +374,7 @@
     <t xml:space="preserve">$126.95</t>
   </si>
   <si>
-    <t xml:space="preserve">Measles, Mumps and Rubella (MMR) [1]</t>
+    <t xml:space="preserve">Measles, Mumps and Rubella (MMR) </t>
   </si>
   <si>
     <t xml:space="preserve">M-M-RII</t>
@@ -391,7 +389,7 @@
     <t xml:space="preserve">$70.92</t>
   </si>
   <si>
-    <t xml:space="preserve">MMR/Varicella [2]</t>
+    <t xml:space="preserve">MMR/Varicella </t>
   </si>
   <si>
     <t xml:space="preserve">ProQuad</t>
@@ -406,8 +404,7 @@
     <t xml:space="preserve">$202.41</t>
   </si>
   <si>
-    <t xml:space="preserve">Pneumococcal
-13-valent [5] (Pediatric)</t>
+    <t xml:space="preserve">Pneumococcal 13-valent  (Pediatric)</t>
   </si>
   <si>
     <t xml:space="preserve">Prevnar 13 TM</t>
@@ -437,7 +434,7 @@
     <t xml:space="preserve">$94.51</t>
   </si>
   <si>
-    <t xml:space="preserve">Rotavirus, Live, Oral, Pentavalent [5]</t>
+    <t xml:space="preserve">Rotavirus, Live, Oral, Pentavalent </t>
   </si>
   <si>
     <t xml:space="preserve">RotaTeq</t>
@@ -461,7 +458,7 @@
     <t xml:space="preserve">25 pack - 1 dose tube</t>
   </si>
   <si>
-    <t xml:space="preserve">Rotavirus, Live, Oral, Oral [5]</t>
+    <t xml:space="preserve">Rotavirus, Live, Oral, Oral </t>
   </si>
   <si>
     <t xml:space="preserve">Rotarix</t>
@@ -476,7 +473,7 @@
     <t xml:space="preserve">$117.45</t>
   </si>
   <si>
-    <t xml:space="preserve">Tetanus and Diphtheria Toxoids [3]</t>
+    <t xml:space="preserve">Tetanus and Diphtheria Toxoids </t>
   </si>
   <si>
     <t xml:space="preserve">Tenivac</t>
@@ -512,7 +509,7 @@
     <t xml:space="preserve">200-2018-00362</t>
   </si>
   <si>
-    <t xml:space="preserve">Tetanus Toxoid, Reduced Diphtheria Toxoid and Acellular Pertussis [1]</t>
+    <t xml:space="preserve">Tetanus Toxoid, Reduced Diphtheria Toxoid and Acellular Pertussis </t>
   </si>
   <si>
     <t xml:space="preserve">Boostrix</t>
@@ -548,7 +545,7 @@
     <t xml:space="preserve">5 pack - 1 dose syringe</t>
   </si>
   <si>
-    <t xml:space="preserve">Varicella [5]</t>
+    <t xml:space="preserve">Varicella </t>
   </si>
   <si>
     <t xml:space="preserve">Varivax</t>
@@ -563,7 +560,7 @@
     <t xml:space="preserve">$122.02</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A-Adult [5]</t>
+    <t xml:space="preserve">Hepatitis A-Adult </t>
   </si>
   <si>
     <t xml:space="preserve">00006-4096-02</t>
@@ -584,7 +581,7 @@
     <t xml:space="preserve">$29.23</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A Adult [5]</t>
+    <t xml:space="preserve">Hepatitis A Adult </t>
   </si>
   <si>
     <t xml:space="preserve">58160-0826-11</t>
@@ -605,13 +602,13 @@
     <t xml:space="preserve">$27.68</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A-Hepatitis B Adult [3]</t>
+    <t xml:space="preserve">Hepatitis A-Hepatitis B Adult </t>
   </si>
   <si>
     <t xml:space="preserve">$55.90</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis B-Adult [5]</t>
+    <t xml:space="preserve">Hepatitis B-Adult </t>
   </si>
   <si>
     <t xml:space="preserve">Engerix-B</t>
@@ -632,13 +629,13 @@
     <t xml:space="preserve">$29.38</t>
   </si>
   <si>
-    <t xml:space="preserve">HPV-Human Papillomavirus 9 Valent [5]</t>
+    <t xml:space="preserve">HPV-Human Papillomavirus 9 Valent </t>
   </si>
   <si>
     <t xml:space="preserve">$116.22</t>
   </si>
   <si>
-    <t xml:space="preserve">Measles, Mumps,  Rubella-Adult [1]</t>
+    <t xml:space="preserve">Measles, Mumps,  Rubella-Adult </t>
   </si>
   <si>
     <t xml:space="preserve">10 pack - 1 dose vials</t>
@@ -671,8 +668,7 @@
     <t xml:space="preserve">$102.33</t>
   </si>
   <si>
-    <t xml:space="preserve">Pneumococcal
-13-valent [5] (Adult)</t>
+    <t xml:space="preserve">Pneumococcal 13-valent  (Adult)</t>
   </si>
   <si>
     <t xml:space="preserve">Prevnar 13</t>
@@ -714,7 +710,7 @@
     <t xml:space="preserve">$24.79</t>
   </si>
   <si>
-    <t xml:space="preserve">Varicella-Adult [5]</t>
+    <t xml:space="preserve">Varicella-Adult </t>
   </si>
   <si>
     <t xml:space="preserve">$69.94</t>
@@ -756,12 +752,10 @@
     <t xml:space="preserve">58160-0823-11</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-(Age 6 months and older)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fluzone
-Quadrivalent</t>
+    <t xml:space="preserve">Influenza  (Age 6 months and older)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluzone Quadrivalent</t>
   </si>
   <si>
     <t xml:space="preserve">49281-0629-15</t>
@@ -776,13 +770,10 @@
     <t xml:space="preserve">200-2018-00015</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-(Age 6-35 months)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fluzone
-Quadrivalent
-Pediatric dose</t>
+    <t xml:space="preserve">Influenza  (Age 6-35 months)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluzone Quadrivalent Pediatric dose</t>
   </si>
   <si>
     <t xml:space="preserve">49281-0518-25</t>
@@ -794,8 +785,7 @@
     <t xml:space="preserve">$19.259</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-(Age 36 months and older)</t>
+    <t xml:space="preserve">Influenza  (Age 36 months and older)</t>
   </si>
   <si>
     <t xml:space="preserve">49281-0418-50</t>
@@ -807,8 +797,7 @@
     <t xml:space="preserve">49281-0418-10</t>
   </si>
   <si>
-    <t xml:space="preserve">Fluarix
-Quadrivalent</t>
+    <t xml:space="preserve">Fluarix Quadrivalent</t>
   </si>
   <si>
     <t xml:space="preserve">58160-0898-52</t>
@@ -826,8 +815,7 @@
     <t xml:space="preserve">200-2018-00013</t>
   </si>
   <si>
-    <t xml:space="preserve">FluLaval
-Quadrivalent</t>
+    <t xml:space="preserve">FluLaval Quadrivalent</t>
   </si>
   <si>
     <t xml:space="preserve">19515-0900-11</t>
@@ -842,8 +830,7 @@
     <t xml:space="preserve">19515-0909-52</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-(Age 4 years and older)</t>
+    <t xml:space="preserve">Influenza  (Age 4 years and older)</t>
   </si>
   <si>
     <t xml:space="preserve">Flucelvax Quadrivalent</t>
@@ -870,8 +857,7 @@
     <t xml:space="preserve">$20.119</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-(Age 5 years and older)</t>
+    <t xml:space="preserve">Influenza  (Age 5 years and older)</t>
   </si>
   <si>
     <t xml:space="preserve">Afluria Quadrivalent</t>
@@ -905,10 +891,6 @@
   </si>
   <si>
     <t xml:space="preserve">$11.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Afluria
-Quadrivalent</t>
   </si>
 </sst>
 </file>
@@ -3646,7 +3628,7 @@
         <v>280</v>
       </c>
       <c r="B10" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C10" t="s">
         <v>282</v>
@@ -3675,7 +3657,7 @@
         <v>280</v>
       </c>
       <c r="B11" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C11" t="s">
         <v>283</v>
